--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H2">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.150777</v>
+        <v>0.06743766666666666</v>
       </c>
       <c r="N2">
-        <v>0.452331</v>
+        <v>0.202313</v>
       </c>
       <c r="O2">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262162</v>
       </c>
       <c r="P2">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262163</v>
       </c>
       <c r="Q2">
-        <v>0.010754471079</v>
+        <v>0.001371344951666667</v>
       </c>
       <c r="R2">
-        <v>0.096790239711</v>
+        <v>0.012342104565</v>
       </c>
       <c r="S2">
-        <v>0.000324694561480733</v>
+        <v>4.264907334286329E-05</v>
       </c>
       <c r="T2">
-        <v>0.000324694561480733</v>
+        <v>4.264907334286329E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H3">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I3">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J3">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>36.921196</v>
       </c>
       <c r="O3">
-        <v>0.7895763895222844</v>
+        <v>0.7938207485680675</v>
       </c>
       <c r="P3">
-        <v>0.7895763895222843</v>
+        <v>0.7938207485680676</v>
       </c>
       <c r="Q3">
-        <v>0.8778260490306667</v>
+        <v>0.2502641735533334</v>
       </c>
       <c r="R3">
-        <v>7.900434441276</v>
+        <v>2.25237756198</v>
       </c>
       <c r="S3">
-        <v>0.02650296253089927</v>
+        <v>0.007783260572035563</v>
       </c>
       <c r="T3">
-        <v>0.02650296253089926</v>
+        <v>0.007783260572035563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H4">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I4">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J4">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.387238</v>
       </c>
       <c r="O4">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486703</v>
       </c>
       <c r="P4">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486704</v>
       </c>
       <c r="Q4">
-        <v>0.2231878416086667</v>
+        <v>0.06362982824333333</v>
       </c>
       <c r="R4">
-        <v>2.008690574478</v>
+        <v>0.57266845419</v>
       </c>
       <c r="S4">
-        <v>0.00673839539170491</v>
+        <v>0.001978899042320134</v>
       </c>
       <c r="T4">
-        <v>0.00673839539170491</v>
+        <v>0.001978899042320134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I5">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J5">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.150777</v>
+        <v>0.06743766666666666</v>
       </c>
       <c r="N5">
-        <v>0.452331</v>
+        <v>0.202313</v>
       </c>
       <c r="O5">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262162</v>
       </c>
       <c r="P5">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262163</v>
       </c>
       <c r="Q5">
-        <v>0.046472939271</v>
+        <v>0.020785839933</v>
       </c>
       <c r="R5">
-        <v>0.418256453439</v>
+        <v>0.187072559397</v>
       </c>
       <c r="S5">
-        <v>0.001403091842125366</v>
+        <v>0.0006464433406912886</v>
       </c>
       <c r="T5">
-        <v>0.001403091842125366</v>
+        <v>0.0006464433406912886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I6">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J6">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>36.921196</v>
       </c>
       <c r="O6">
-        <v>0.7895763895222844</v>
+        <v>0.7938207485680675</v>
       </c>
       <c r="P6">
-        <v>0.7895763895222843</v>
+        <v>0.7938207485680676</v>
       </c>
       <c r="Q6">
         <v>3.793320598236</v>
@@ -818,10 +818,10 @@
         <v>34.13988538412401</v>
       </c>
       <c r="S6">
-        <v>0.1145263731849281</v>
+        <v>0.1179729492645448</v>
       </c>
       <c r="T6">
-        <v>0.1145263731849281</v>
+        <v>0.1179729492645448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I7">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J7">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.387238</v>
       </c>
       <c r="O7">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486703</v>
       </c>
       <c r="P7">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486704</v>
       </c>
       <c r="Q7">
         <v>0.964454219358</v>
@@ -880,10 +880,10 @@
         <v>8.680087974222001</v>
       </c>
       <c r="S7">
-        <v>0.02911840457074407</v>
+        <v>0.02999469877162719</v>
       </c>
       <c r="T7">
-        <v>0.02911840457074407</v>
+        <v>0.02999469877162719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H8">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I8">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J8">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.150777</v>
+        <v>0.06743766666666666</v>
       </c>
       <c r="N8">
-        <v>0.452331</v>
+        <v>0.202313</v>
       </c>
       <c r="O8">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262162</v>
       </c>
       <c r="P8">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262163</v>
       </c>
       <c r="Q8">
-        <v>0.263169844707</v>
+        <v>0.1177073443832222</v>
       </c>
       <c r="R8">
-        <v>2.368528602363</v>
+        <v>1.059366099449</v>
       </c>
       <c r="S8">
-        <v>0.007945515562262081</v>
+        <v>0.003660719469228011</v>
       </c>
       <c r="T8">
-        <v>0.007945515562262081</v>
+        <v>0.003660719469228011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H9">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I9">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J9">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>36.921196</v>
       </c>
       <c r="O9">
-        <v>0.7895763895222844</v>
+        <v>0.7938207485680675</v>
       </c>
       <c r="P9">
-        <v>0.7895763895222843</v>
+        <v>0.7938207485680676</v>
       </c>
       <c r="Q9">
         <v>21.48105130472311</v>
@@ -1004,10 +1004,10 @@
         <v>193.329461742508</v>
       </c>
       <c r="S9">
-        <v>0.6485470538064571</v>
+        <v>0.6680645387314872</v>
       </c>
       <c r="T9">
-        <v>0.6485470538064569</v>
+        <v>0.6680645387314873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H10">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I10">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J10">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>9.387238</v>
       </c>
       <c r="O10">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486703</v>
       </c>
       <c r="P10">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486704</v>
       </c>
       <c r="Q10">
-        <v>5.461571209330444</v>
+        <v>5.461571209330445</v>
       </c>
       <c r="R10">
-        <v>49.15414088397399</v>
+        <v>49.15414088397401</v>
       </c>
       <c r="S10">
-        <v>0.1648935085493985</v>
+        <v>0.169855841734723</v>
       </c>
       <c r="T10">
-        <v>0.1648935085493985</v>
+        <v>0.169855841734723</v>
       </c>
     </row>
   </sheetData>
